--- a/results/PA/PA_areas.xlsx
+++ b/results/PA/PA_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/results/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B5C084-B127-9145-8591-370BB8DC2D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44DE439-8EC1-314D-A530-442A458F0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{1F90EDB6-BB6B-A240-B29E-4358CD0A1CB6}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>AREA</t>
   </si>
@@ -713,7 +713,10 @@
     <t>% BLOCKS</t>
   </si>
   <si>
-    <t>% POPULATION</t>
+    <t>% POP</t>
+  </si>
+  <si>
+    <t>% DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -747,12 +750,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -777,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +798,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,13 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D2E0F-C911-B045-8AEB-C1ACED1A85CA}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,9 +1135,10 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,14 +1151,18 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1158,16 +1175,20 @@
       <c r="D2" s="5">
         <v>358309</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <f>SUM(C$2:C2)/SUM(C$2:C$215)</f>
         <v>3.0669657959866817E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <f>SUM(D$2:D2)/SUM(D$2:D$215)</f>
         <v>2.7556507494597277E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="6">
+        <f>D2/764865</f>
+        <v>0.46846044726847219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1180,16 +1201,20 @@
       <c r="D3" s="5">
         <v>354814</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <f>SUM(C$2:C3)/SUM(C$2:C$215)</f>
         <v>6.2998177922594351E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <f>SUM(D$2:D3)/SUM(D$2:D$215)</f>
         <v>5.4844224661031941E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H66" si="0">D3/764865</f>
+        <v>0.46389101344681744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1202,16 +1227,20 @@
       <c r="D4" s="5">
         <v>335943</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>SUM(C$2:C4)/SUM(C$2:C$215)</f>
         <v>7.3633887078681695E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>SUM(D$2:D4)/SUM(D$2:D$215)</f>
         <v>8.0680627869596316E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43921868565040889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1224,16 +1253,20 @@
       <c r="D5" s="5">
         <v>325594</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f>SUM(C$2:C5)/SUM(C$2:C$215)</f>
         <v>0.10002730148555693</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f>SUM(D$2:D5)/SUM(D$2:D$215)</f>
         <v>0.1057211194598045</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42568819334130859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1246,16 +1279,20 @@
       <c r="D6" s="5">
         <v>298233</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>SUM(C$2:C6)/SUM(C$2:C$215)</f>
         <v>0.11172539453614183</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>SUM(D$2:D6)/SUM(D$2:D$215)</f>
         <v>0.12865735577995338</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38991586750603047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1268,16 +1305,20 @@
       <c r="D7" s="5">
         <v>278766</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>SUM(C$2:C7)/SUM(C$2:C$215)</f>
         <v>0.13386333825947094</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>SUM(D$2:D7)/SUM(D$2:D$215)</f>
         <v>0.15009644150830212</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36446431723245276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1290,16 +1331,20 @@
       <c r="D8" s="5">
         <v>267709</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f>SUM(C$2:C8)/SUM(C$2:C$215)</f>
         <v>0.1472113906545828</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>SUM(D$2:D8)/SUM(D$2:D$215)</f>
         <v>0.17068516538872697</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35000817137664819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1312,16 +1357,20 @@
       <c r="D9" s="5">
         <v>256294</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>SUM(C$2:C9)/SUM(C$2:C$215)</f>
         <v>0.17896123782561474</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>SUM(D$2:D9)/SUM(D$2:D$215)</f>
         <v>0.1903959946780284</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33508396906643656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1334,16 +1383,20 @@
       <c r="D10" s="5">
         <v>246907</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>SUM(C$2:C10)/SUM(C$2:C$215)</f>
         <v>0.19822362290713341</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>SUM(D$2:D10)/SUM(D$2:D$215)</f>
         <v>0.2093848969829343</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32281121505102206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1356,16 +1409,20 @@
       <c r="D11" s="5">
         <v>229674</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>SUM(C$2:C11)/SUM(C$2:C$215)</f>
         <v>0.21464902753295467</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>SUM(D$2:D11)/SUM(D$2:D$215)</f>
         <v>0.22704845916617317</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30028044164656509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1378,16 +1435,20 @@
       <c r="D12" s="5">
         <v>228735</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>SUM(C$2:C12)/SUM(C$2:C$215)</f>
         <v>0.22118357874994807</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>SUM(D$2:D12)/SUM(D$2:D$215)</f>
         <v>0.24463980557884132</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29905277401894453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1400,16 +1461,20 @@
       <c r="D13" s="5">
         <v>219020</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>SUM(C$2:C13)/SUM(C$2:C$215)</f>
         <v>0.24203657212043517</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>SUM(D$2:D13)/SUM(D$2:D$215)</f>
         <v>0.26148399947703171</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28635118615703425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1422,16 +1487,20 @@
       <c r="D14" s="5">
         <v>207454</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>SUM(C$2:C14)/SUM(C$2:C$215)</f>
         <v>0.25234881802372855</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>SUM(D$2:D14)/SUM(D$2:D$215)</f>
         <v>0.2774386858114084</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27122956338700294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1444,16 +1513,20 @@
       <c r="D15" s="5">
         <v>197187</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f>SUM(C$2:C15)/SUM(C$2:C$215)</f>
         <v>0.26725780318002956</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>SUM(D$2:D15)/SUM(D$2:D$215)</f>
         <v>0.29260376690994949</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25780627953952656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1466,16 +1539,20 @@
       <c r="D16" s="5">
         <v>196202</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>SUM(C$2:C16)/SUM(C$2:C$215)</f>
         <v>0.27857308192226199</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>SUM(D$2:D16)/SUM(D$2:D$215)</f>
         <v>0.30769309451114002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2565184705797755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1488,16 +1565,20 @@
       <c r="D17" s="5">
         <v>194467</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>SUM(C$2:C17)/SUM(C$2:C$215)</f>
         <v>0.28660031218655224</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>SUM(D$2:D17)/SUM(D$2:D$215)</f>
         <v>0.32264898828704808</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25425009642224444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1510,16 +1591,21 @@
       <c r="D18" s="9">
         <v>192642</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="13"/>
+      <c r="F18" s="10">
         <f>SUM(C$2:C18)/SUM(C$2:C$215)</f>
         <v>0.2919626800562648</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <f>SUM(D$2:D18)/SUM(D$2:D$215)</f>
         <v>0.33746452659832188</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25186405444097976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1532,16 +1618,20 @@
       <c r="D19" s="5">
         <v>189352</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>SUM(C$2:C19)/SUM(C$2:C$215)</f>
         <v>0.29760696543988036</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>SUM(D$2:D19)/SUM(D$2:D$215)</f>
         <v>0.35202704053773448</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24756264177338486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1554,16 +1644,20 @@
       <c r="D20" s="5">
         <v>180649</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>SUM(C$2:C20)/SUM(C$2:C$215)</f>
         <v>0.3051119064152556</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>SUM(D$2:D20)/SUM(D$2:D$215)</f>
         <v>0.36592023195182538</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23618416321834573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1576,16 +1670,20 @@
       <c r="D21" s="5">
         <v>176384</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>SUM(C$2:C21)/SUM(C$2:C$215)</f>
         <v>0.31283051119064154</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>SUM(D$2:D21)/SUM(D$2:D$215)</f>
         <v>0.3794854145677436</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23060801579363679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1598,16 +1696,20 @@
       <c r="D22" s="5">
         <v>170319</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>SUM(C$2:C22)/SUM(C$2:C$215)</f>
         <v>0.32302405498281789</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>SUM(D$2:D22)/SUM(D$2:D$215)</f>
         <v>0.39258415559845261</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22267851189425586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1620,16 +1722,20 @@
       <c r="D23" s="5">
         <v>164758</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f>SUM(C$2:C23)/SUM(C$2:C$215)</f>
         <v>0.34782389354794674</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f>SUM(D$2:D23)/SUM(D$2:D$215)</f>
         <v>0.40525521622432265</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21540794780778308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1642,16 +1748,20 @@
       <c r="D24" s="5">
         <v>151638</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f>SUM(C$2:C24)/SUM(C$2:C$215)</f>
         <v>0.37181359020470178</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <f>SUM(D$2:D24)/SUM(D$2:D$215)</f>
         <v>0.41691725564690413</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19825459394795161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1664,16 +1774,20 @@
       <c r="D25" s="5">
         <v>146575</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f>SUM(C$2:C25)/SUM(C$2:C$215)</f>
         <v>0.3812296351690615</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f>SUM(D$2:D25)/SUM(D$2:D$215)</f>
         <v>0.42818991440239335</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19163512515280473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1686,16 +1800,20 @@
       <c r="D26" s="5">
         <v>146214</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f>SUM(C$2:C26)/SUM(C$2:C$215)</f>
         <v>0.38896604526111495</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>SUM(D$2:D26)/SUM(D$2:D$215)</f>
         <v>0.4394348096933714</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19116314643760662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1708,16 +1826,20 @@
       <c r="D27" s="5">
         <v>144848</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f>SUM(C$2:C27)/SUM(C$2:C$215)</f>
         <v>0.4145552528651722</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f>SUM(D$2:D27)/SUM(D$2:D$215)</f>
         <v>0.45057464988040946</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18937721035738334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1730,16 +1852,20 @@
       <c r="D28" s="5">
         <v>144272</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f>SUM(C$2:C28)/SUM(C$2:C$215)</f>
         <v>0.42469538070734586</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <f>SUM(D$2:D28)/SUM(D$2:D$215)</f>
         <v>0.46167019157559586</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1886241362854883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1752,16 +1878,20 @@
       <c r="D29" s="5">
         <v>143257</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f>SUM(C$2:C29)/SUM(C$2:C$215)</f>
         <v>0.43868442450248979</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>SUM(D$2:D29)/SUM(D$2:D$215)</f>
         <v>0.47268767256031441</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18729710471782601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1774,16 +1904,20 @@
       <c r="D30" s="5">
         <v>140419</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <f>SUM(C$2:C30)/SUM(C$2:C$215)</f>
         <v>0.4447797779083501</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <f>SUM(D$2:D30)/SUM(D$2:D$215)</f>
         <v>0.48348689118413868</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18358664600942651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1796,16 +1930,20 @@
       <c r="D31" s="5">
         <v>140260</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <f>SUM(C$2:C31)/SUM(C$2:C$215)</f>
         <v>0.45053089519197098</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <f>SUM(D$2:D31)/SUM(D$2:D$215)</f>
         <v>0.49427388157844138</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18337876618749713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1818,16 +1956,20 @@
       <c r="D32" s="5">
         <v>137157</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <f>SUM(C$2:C32)/SUM(C$2:C$215)</f>
         <v>0.45590216572001735</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <f>SUM(D$2:D32)/SUM(D$2:D$215)</f>
         <v>0.50482222922931386</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17932184110921534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1840,16 +1982,20 @@
       <c r="D33" s="5">
         <v>127865</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <f>SUM(C$2:C33)/SUM(C$2:C$215)</f>
         <v>0.46071850387859148</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <f>SUM(D$2:D33)/SUM(D$2:D$215)</f>
         <v>0.51465595607066228</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.167173292018853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1862,16 +2008,20 @@
       <c r="D34" s="5">
         <v>127675</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <f>SUM(C$2:C34)/SUM(C$2:C$215)</f>
         <v>0.47131860240134371</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <f>SUM(D$2:D34)/SUM(D$2:D$215)</f>
         <v>0.52447507056226783</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16692488216874873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1884,16 +2034,20 @@
       <c r="D35" s="5">
         <v>126708</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <f>SUM(C$2:C35)/SUM(C$2:C$215)</f>
         <v>0.48238163915745241</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <f>SUM(D$2:D35)/SUM(D$2:D$215)</f>
         <v>0.53421981588439327</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16566060677374439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1906,16 +2060,20 @@
       <c r="D36" s="5">
         <v>124124</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <f>SUM(C$2:C36)/SUM(C$2:C$215)</f>
         <v>0.48780632563550141</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <f>SUM(D$2:D36)/SUM(D$2:D$215)</f>
         <v>0.54376583325001726</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16228223281232637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1928,16 +2086,20 @@
       <c r="D37" s="5">
         <v>115168</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <f>SUM(C$2:C37)/SUM(C$2:C$215)</f>
         <v>0.49393728967469686</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <f>SUM(D$2:D37)/SUM(D$2:D$215)</f>
         <v>0.55262307059303073</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15057297693056945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1950,16 +2112,20 @@
       <c r="D38" s="5">
         <v>114835</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <f>SUM(C$2:C38)/SUM(C$2:C$215)</f>
         <v>0.49973588780276457</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <f>SUM(D$2:D38)/SUM(D$2:D$215)</f>
         <v>0.56145469787044233</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15013760598275513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1972,16 +2138,20 @@
       <c r="D39" s="5">
         <v>112741</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <f>SUM(C$2:C39)/SUM(C$2:C$215)</f>
         <v>0.50410412549187189</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <f>SUM(D$2:D39)/SUM(D$2:D$215)</f>
         <v>0.57012528167226806</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14739986795055338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1994,16 +2164,20 @@
       <c r="D40" s="5">
         <v>108531</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <f>SUM(C$2:C40)/SUM(C$2:C$215)</f>
         <v>0.51626218922303535</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <f>SUM(D$2:D40)/SUM(D$2:D$215)</f>
         <v>0.57847208656663618</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1418956286403483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2016,16 +2190,20 @@
       <c r="D41" s="5">
         <v>107576</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <f>SUM(C$2:C41)/SUM(C$2:C$215)</f>
         <v>0.52447044020677913</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <f>SUM(D$2:D41)/SUM(D$2:D$215)</f>
         <v>0.58674544517677096</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14064704228850844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2038,16 +2216,20 @@
       <c r="D42" s="5">
         <v>103203</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <f>SUM(C$2:C42)/SUM(C$2:C$215)</f>
         <v>0.52829561573752593</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <f>SUM(D$2:D42)/SUM(D$2:D$215)</f>
         <v>0.59468248902151088</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13492969347531916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2060,16 +2242,20 @@
       <c r="D43" s="5">
         <v>101840</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <f>SUM(C$2:C43)/SUM(C$2:C$215)</f>
         <v>0.53543554772121627</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <f>SUM(D$2:D43)/SUM(D$2:D$215)</f>
         <v>0.60251470848362265</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13314767965588697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2082,16 +2268,20 @@
       <c r="D44" s="5">
         <v>101773</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <f>SUM(C$2:C44)/SUM(C$2:C$215)</f>
         <v>0.5469140418662346</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <f>SUM(D$2:D44)/SUM(D$2:D$215)</f>
         <v>0.61034177516977239</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13306008249821863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2104,16 +2294,20 @@
       <c r="D45" s="5">
         <v>98396</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <f>SUM(C$2:C45)/SUM(C$2:C$215)</f>
         <v>0.55262954851652035</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <f>SUM(D$2:D45)/SUM(D$2:D$215)</f>
         <v>0.61790912656602093</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12864492426768123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2126,16 +2320,20 @@
       <c r="D46" s="5">
         <v>95408</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <f>SUM(C$2:C46)/SUM(C$2:C$215)</f>
         <v>0.55743698401676078</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <f>SUM(D$2:D46)/SUM(D$2:D$215)</f>
         <v>0.62524667953578872</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1247383525197257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2148,16 +2346,20 @@
       <c r="D47" s="5">
         <v>91249</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <f>SUM(C$2:C47)/SUM(C$2:C$215)</f>
         <v>0.56402495118375684</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <f>SUM(D$2:D47)/SUM(D$2:D$215)</f>
         <v>0.63226437586039819</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11930079164296968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2170,16 +2372,20 @@
       <c r="D48" s="5">
         <v>90747</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <f>SUM(C$2:C48)/SUM(C$2:C$215)</f>
         <v>0.56835461068675108</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <f>SUM(D$2:D48)/SUM(D$2:D$215)</f>
         <v>0.63924346481884531</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11864446667058892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2192,16 +2398,20 @@
       <c r="D49" s="5">
         <v>86242</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <f>SUM(C$2:C49)/SUM(C$2:C$215)</f>
         <v>0.57426300826760202</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <f>SUM(D$2:D49)/SUM(D$2:D$215)</f>
         <v>0.64587608727418155</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11275453838259039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2214,16 +2424,20 @@
       <c r="D50" s="5">
         <v>86070</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <f>SUM(C$2:C50)/SUM(C$2:C$215)</f>
         <v>0.58406483509309215</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <f>SUM(D$2:D50)/SUM(D$2:D$215)</f>
         <v>0.65249548170764538</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11252966209723285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2236,16 +2450,20 @@
       <c r="D51" s="5">
         <v>85994</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <f>SUM(C$2:C51)/SUM(C$2:C$215)</f>
         <v>0.59282801844630806</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <f>SUM(D$2:D51)/SUM(D$2:D$215)</f>
         <v>0.659109031201212</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11243029815719113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2258,16 +2476,20 @@
       <c r="D52" s="5">
         <v>85602</v>
       </c>
-      <c r="E52" s="6">
+      <c r="F52" s="6">
         <f>SUM(C$2:C52)/SUM(C$2:C$215)</f>
         <v>0.60551727412472034</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <f>SUM(D$2:D52)/SUM(D$2:D$215)</f>
         <v>0.66569243311004633</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11191778941381812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2280,16 +2502,20 @@
       <c r="D53" s="5">
         <v>83419</v>
       </c>
-      <c r="E53" s="6">
+      <c r="F53" s="6">
         <f>SUM(C$2:C53)/SUM(C$2:C$215)</f>
         <v>0.6086450747526545</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <f>SUM(D$2:D53)/SUM(D$2:D$215)</f>
         <v>0.67210794681104691</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10906369097814647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2302,16 +2528,20 @@
       <c r="D54" s="5">
         <v>83246</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="6">
         <f>SUM(C$2:C54)/SUM(C$2:C$215)</f>
         <v>0.62156579954774493</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <f>SUM(D$2:D54)/SUM(D$2:D$215)</f>
         <v>0.67851015558307126</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10883750727252521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2324,16 +2554,20 @@
       <c r="D55" s="5">
         <v>82744</v>
       </c>
-      <c r="E55" s="6">
+      <c r="F55" s="6">
         <f>SUM(C$2:C55)/SUM(C$2:C$215)</f>
         <v>0.62528711073126431</v>
       </c>
-      <c r="F55" s="6">
+      <c r="G55" s="6">
         <f>SUM(D$2:D55)/SUM(D$2:D$215)</f>
         <v>0.68487375698893305</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10818118230014447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2346,16 +2580,20 @@
       <c r="D56" s="5">
         <v>82417</v>
       </c>
-      <c r="E56" s="6">
+      <c r="F56" s="6">
         <f>SUM(C$2:C56)/SUM(C$2:C$215)</f>
         <v>0.63601481402346738</v>
       </c>
-      <c r="F56" s="6">
+      <c r="G56" s="6">
         <f>SUM(D$2:D56)/SUM(D$2:D$215)</f>
         <v>0.69121220977181663</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10775365587391239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2368,16 +2606,20 @@
       <c r="D57" s="5">
         <v>81811</v>
       </c>
-      <c r="E57" s="6">
+      <c r="F57" s="6">
         <f>SUM(C$2:C57)/SUM(C$2:C$215)</f>
         <v>0.64514003881559034</v>
       </c>
-      <c r="F57" s="6">
+      <c r="G57" s="6">
         <f>SUM(D$2:D57)/SUM(D$2:D$215)</f>
         <v>0.69750405684973116</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10696135919410615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2390,16 +2632,20 @@
       <c r="D58" s="5">
         <v>81047</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F58" s="6">
         <f>SUM(C$2:C58)/SUM(C$2:C$215)</f>
         <v>0.64860910801298599</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G58" s="6">
         <f>SUM(D$2:D58)/SUM(D$2:D$215)</f>
         <v>0.70373714690025913</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10596249011263426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2412,16 +2658,20 @@
       <c r="D59" s="5">
         <v>80596</v>
       </c>
-      <c r="E59" s="6">
+      <c r="F59" s="6">
         <f>SUM(C$2:C59)/SUM(C$2:C$215)</f>
         <v>0.65324739300488455</v>
       </c>
-      <c r="F59" s="6">
+      <c r="G59" s="6">
         <f>SUM(D$2:D59)/SUM(D$2:D$215)</f>
         <v>0.70993555184692414</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10537284357370255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2434,16 +2684,20 @@
       <c r="D60" s="5">
         <v>80038</v>
       </c>
-      <c r="E60" s="6">
+      <c r="F60" s="6">
         <f>SUM(C$2:C60)/SUM(C$2:C$215)</f>
         <v>0.65615559472725227</v>
       </c>
-      <c r="F60" s="6">
+      <c r="G60" s="6">
         <f>SUM(D$2:D60)/SUM(D$2:D$215)</f>
         <v>0.71609104262960765</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10464330306655423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2456,16 +2710,20 @@
       <c r="D61" s="5">
         <v>78107</v>
       </c>
-      <c r="E61" s="6">
+      <c r="F61" s="6">
         <f>SUM(C$2:C61)/SUM(C$2:C$215)</f>
         <v>0.65973446337743114</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="6">
         <f>SUM(D$2:D61)/SUM(D$2:D$215)</f>
         <v>0.72209802579464266</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10211867453733665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2478,16 +2736,20 @@
       <c r="D62" s="5">
         <v>75757</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="6">
         <f>SUM(C$2:C62)/SUM(C$2:C$215)</f>
         <v>0.66393651811097465</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <f>SUM(D$2:D62)/SUM(D$2:D$215)</f>
         <v>0.72792427726549103</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9046236917625985E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2500,16 +2762,20 @@
       <c r="D63" s="5">
         <v>74129</v>
       </c>
-      <c r="E63" s="6">
+      <c r="F63" s="6">
         <f>SUM(C$2:C63)/SUM(C$2:C$215)</f>
         <v>0.67568209200600637</v>
       </c>
-      <c r="F63" s="6">
+      <c r="G63" s="6">
         <f>SUM(D$2:D63)/SUM(D$2:D$215)</f>
         <v>0.73362532397117519</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" s="6">
+        <f t="shared" si="0"/>
+        <v>9.691775672831153E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2522,16 +2788,20 @@
       <c r="D64" s="5">
         <v>73299</v>
       </c>
-      <c r="E64" s="6">
+      <c r="F64" s="6">
         <f>SUM(C$2:C64)/SUM(C$2:C$215)</f>
         <v>0.68209497355910476</v>
       </c>
-      <c r="F64" s="6">
+      <c r="G64" s="6">
         <f>SUM(D$2:D64)/SUM(D$2:D$215)</f>
         <v>0.73926253778061479</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5832597909435005E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2544,16 +2814,20 @@
       <c r="D65" s="5">
         <v>72972</v>
       </c>
-      <c r="E65" s="6">
+      <c r="F65" s="6">
         <f>SUM(C$2:C65)/SUM(C$2:C$215)</f>
         <v>0.68950495284558633</v>
       </c>
-      <c r="F65" s="6">
+      <c r="G65" s="6">
         <f>SUM(D$2:D65)/SUM(D$2:D$215)</f>
         <v>0.74487460296707608</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5405071483202916E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2566,16 +2840,20 @@
       <c r="D66" s="5">
         <v>72753</v>
       </c>
-      <c r="E66" s="6">
+      <c r="F66" s="6">
         <f>SUM(C$2:C66)/SUM(C$2:C$215)</f>
         <v>0.69110743134566643</v>
       </c>
-      <c r="F66" s="6">
+      <c r="G66" s="6">
         <f>SUM(D$2:D66)/SUM(D$2:D$215)</f>
         <v>0.75046982549778118</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5118746445451152E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2588,16 +2866,20 @@
       <c r="D67" s="5">
         <v>69635</v>
       </c>
-      <c r="E67" s="6">
+      <c r="F67" s="6">
         <f>SUM(C$2:C67)/SUM(C$2:C$215)</f>
         <v>0.69592376950424062</v>
       </c>
-      <c r="F67" s="6">
+      <c r="G67" s="6">
         <f>SUM(D$2:D67)/SUM(D$2:D$215)</f>
         <v>0.75582525167849757</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="6">
+        <f t="shared" ref="H67:H130" si="1">D67/764865</f>
+        <v>9.1042210063213766E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2610,16 +2892,20 @@
       <c r="D68" s="5">
         <v>66858</v>
       </c>
-      <c r="E68" s="6">
+      <c r="F68" s="6">
         <f>SUM(C$2:C68)/SUM(C$2:C$215)</f>
         <v>0.69793577028767462</v>
       </c>
-      <c r="F68" s="6">
+      <c r="G68" s="6">
         <f>SUM(D$2:D68)/SUM(D$2:D$215)</f>
         <v>0.76096710683165802</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
+        <v>8.7411503990900349E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2632,16 +2918,20 @@
       <c r="D69" s="5">
         <v>64749</v>
       </c>
-      <c r="E69" s="6">
+      <c r="F69" s="6">
         <f>SUM(C$2:C69)/SUM(C$2:C$215)</f>
         <v>0.70520330704081569</v>
       </c>
-      <c r="F69" s="6">
+      <c r="G69" s="6">
         <f>SUM(D$2:D69)/SUM(D$2:D$215)</f>
         <v>0.7659467649026741</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="6">
+        <f t="shared" si="1"/>
+        <v>8.4654154654742991E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2654,16 +2944,20 @@
       <c r="D70" s="5">
         <v>62941</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F70" s="6">
         <f>SUM(C$2:C70)/SUM(C$2:C$215)</f>
         <v>0.70843497201597727</v>
       </c>
-      <c r="F70" s="6">
+      <c r="G70" s="6">
         <f>SUM(D$2:D70)/SUM(D$2:D$215)</f>
         <v>0.7707873749298223</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2290338817961342E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2676,16 +2970,20 @@
       <c r="D71" s="5">
         <v>61538</v>
       </c>
-      <c r="E71" s="6">
+      <c r="F71" s="6">
         <f>SUM(C$2:C71)/SUM(C$2:C$215)</f>
         <v>0.71857806741092889</v>
       </c>
-      <c r="F71" s="6">
+      <c r="G71" s="6">
         <f>SUM(D$2:D71)/SUM(D$2:D$215)</f>
         <v>0.77552008429018593</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="6">
+        <f t="shared" si="1"/>
+        <v>8.045602818798088E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2698,16 +2996,20 @@
       <c r="D72" s="5">
         <v>60730</v>
       </c>
-      <c r="E72" s="6">
+      <c r="F72" s="6">
         <f>SUM(C$2:C72)/SUM(C$2:C$215)</f>
         <v>0.72878644896699485</v>
       </c>
-      <c r="F72" s="6">
+      <c r="G72" s="6">
         <f>SUM(D$2:D72)/SUM(D$2:D$215)</f>
         <v>0.78019065271059085</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="6">
+        <f t="shared" si="1"/>
+        <v>7.9399632614905902E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2720,16 +3022,20 @@
       <c r="D73" s="5">
         <v>58648</v>
       </c>
-      <c r="E73" s="6">
+      <c r="F73" s="6">
         <f>SUM(C$2:C73)/SUM(C$2:C$215)</f>
         <v>0.73785825780911518</v>
       </c>
-      <c r="F73" s="6">
+      <c r="G73" s="6">
         <f>SUM(D$2:D73)/SUM(D$2:D$215)</f>
         <v>0.78470110054065689</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6677583625868614E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2742,16 +3048,20 @@
       <c r="D74" s="5">
         <v>57345</v>
       </c>
-      <c r="E74" s="6">
+      <c r="F74" s="6">
         <f>SUM(C$2:C74)/SUM(C$2:C$215)</f>
         <v>0.74593296891785221</v>
       </c>
-      <c r="F74" s="6">
+      <c r="G74" s="6">
         <f>SUM(D$2:D74)/SUM(D$2:D$215)</f>
         <v>0.78911133841432934</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4974015022258825E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2764,16 +3074,20 @@
       <c r="D75" s="5">
         <v>55679</v>
       </c>
-      <c r="E75" s="6">
+      <c r="F75" s="6">
         <f>SUM(C$2:C75)/SUM(C$2:C$215)</f>
         <v>0.75331624022933252</v>
       </c>
-      <c r="F75" s="6">
+      <c r="G75" s="6">
         <f>SUM(D$2:D75)/SUM(D$2:D$215)</f>
         <v>0.793393449052889</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" s="6">
+        <f t="shared" si="1"/>
+        <v>7.2795852862923519E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2786,16 +3100,20 @@
       <c r="D76" s="5">
         <v>55574</v>
       </c>
-      <c r="E76" s="6">
+      <c r="F76" s="6">
         <f>SUM(C$2:C76)/SUM(C$2:C$215)</f>
         <v>0.75615025313225193</v>
       </c>
-      <c r="F76" s="6">
+      <c r="G76" s="6">
         <f>SUM(D$2:D76)/SUM(D$2:D$215)</f>
         <v>0.79766748444553826</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H76" s="6">
+        <f t="shared" si="1"/>
+        <v>7.2658573735234322E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -2808,16 +3126,21 @@
       <c r="D77" s="9">
         <v>55009</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="13"/>
+      <c r="F77" s="10">
         <f>SUM(C$2:C77)/SUM(C$2:C$215)</f>
         <v>0.76017128714634186</v>
       </c>
-      <c r="F77" s="10">
+      <c r="G77" s="10">
         <f>SUM(D$2:D77)/SUM(D$2:D$215)</f>
         <v>0.80189806732447877</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" s="10">
+        <f t="shared" si="1"/>
+        <v>7.191988128624005E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2830,16 +3153,20 @@
       <c r="D78" s="5">
         <v>54890</v>
       </c>
-      <c r="E78" s="6">
+      <c r="F78" s="6">
         <f>SUM(C$2:C78)/SUM(C$2:C$215)</f>
         <v>0.76222780122144473</v>
       </c>
-      <c r="F78" s="6">
+      <c r="G78" s="6">
         <f>SUM(D$2:D78)/SUM(D$2:D$215)</f>
         <v>0.80611949825805407</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" s="6">
+        <f t="shared" si="1"/>
+        <v>7.1764298274858959E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2852,16 +3179,20 @@
       <c r="D79" s="5">
         <v>54095</v>
       </c>
-      <c r="E79" s="6">
+      <c r="F79" s="6">
         <f>SUM(C$2:C79)/SUM(C$2:C$215)</f>
         <v>0.76648030435221293</v>
       </c>
-      <c r="F79" s="6">
+      <c r="G79" s="6">
         <f>SUM(D$2:D79)/SUM(D$2:D$215)</f>
         <v>0.81027978804402168</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0724899165212157E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2874,16 +3205,20 @@
       <c r="D80" s="5">
         <v>53422</v>
       </c>
-      <c r="E80" s="6">
+      <c r="F80" s="6">
         <f>SUM(C$2:C80)/SUM(C$2:C$215)</f>
         <v>0.77296143961920361</v>
       </c>
-      <c r="F80" s="6">
+      <c r="G80" s="6">
         <f>SUM(D$2:D80)/SUM(D$2:D$215)</f>
         <v>0.81438831934905831</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9845005327737575E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2896,16 +3231,20 @@
       <c r="D81" s="5">
         <v>52396</v>
       </c>
-      <c r="E81" s="6">
+      <c r="F81" s="6">
         <f>SUM(C$2:C81)/SUM(C$2:C$215)</f>
         <v>0.77451940482761483</v>
       </c>
-      <c r="F81" s="6">
+      <c r="G81" s="6">
         <f>SUM(D$2:D81)/SUM(D$2:D$215)</f>
         <v>0.81841794396548406</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8503592137174538E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2918,16 +3257,20 @@
       <c r="D82" s="5">
         <v>51373</v>
       </c>
-      <c r="E82" s="6">
+      <c r="F82" s="6">
         <f>SUM(C$2:C82)/SUM(C$2:C$215)</f>
         <v>0.78072752523903632</v>
       </c>
-      <c r="F82" s="6">
+      <c r="G82" s="6">
         <f>SUM(D$2:D82)/SUM(D$2:D$215)</f>
         <v>0.82236889261461077</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7166101207402615E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2940,16 +3283,20 @@
       <c r="D83" s="5">
         <v>47577</v>
       </c>
-      <c r="E83" s="6">
+      <c r="F83" s="6">
         <f>SUM(C$2:C83)/SUM(C$2:C$215)</f>
         <v>0.78963611867837069</v>
       </c>
-      <c r="F83" s="6">
+      <c r="G83" s="6">
         <f>SUM(D$2:D83)/SUM(D$2:D$215)</f>
         <v>0.82602790189729824</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2203133886372101E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2962,16 +3309,20 @@
       <c r="D84" s="5">
         <v>47188</v>
       </c>
-      <c r="E84" s="6">
+      <c r="F84" s="6">
         <f>SUM(C$2:C84)/SUM(C$2:C$215)</f>
         <v>0.79466315308417756</v>
       </c>
-      <c r="F84" s="6">
+      <c r="G84" s="6">
         <f>SUM(D$2:D84)/SUM(D$2:D$215)</f>
         <v>0.82965699431656503</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1694547403790212E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2984,16 +3335,20 @@
       <c r="D85" s="5">
         <v>46245</v>
       </c>
-      <c r="E85" s="6">
+      <c r="F85" s="6">
         <f>SUM(C$2:C85)/SUM(C$2:C$215)</f>
         <v>0.79979998694276777</v>
       </c>
-      <c r="F85" s="6">
+      <c r="G85" s="6">
         <f>SUM(D$2:D85)/SUM(D$2:D$215)</f>
         <v>0.83321356333684538</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0461650095114824E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3006,16 +3361,20 @@
       <c r="D86" s="5">
         <v>45967</v>
       </c>
-      <c r="E86" s="6">
+      <c r="F86" s="6">
         <f>SUM(C$2:C86)/SUM(C$2:C$215)</f>
         <v>0.80315035402904644</v>
       </c>
-      <c r="F86" s="6">
+      <c r="G86" s="6">
         <f>SUM(D$2:D86)/SUM(D$2:D$215)</f>
         <v>0.8367487521822391</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0098187261804374E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3028,16 +3387,20 @@
       <c r="D87" s="5">
         <v>45008</v>
       </c>
-      <c r="E87" s="6">
+      <c r="F87" s="6">
         <f>SUM(C$2:C87)/SUM(C$2:C$215)</f>
         <v>0.81092534230721292</v>
       </c>
-      <c r="F87" s="6">
+      <c r="G87" s="6">
         <f>SUM(D$2:D87)/SUM(D$2:D$215)</f>
         <v>0.84021018711498385</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="6">
+        <f t="shared" si="1"/>
+        <v>5.8844371228909675E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3050,16 +3413,20 @@
       <c r="D88" s="5">
         <v>44979</v>
       </c>
-      <c r="E88" s="6">
+      <c r="F88" s="6">
         <f>SUM(C$2:C88)/SUM(C$2:C$215)</f>
         <v>0.8188546433298316</v>
       </c>
-      <c r="F88" s="6">
+      <c r="G88" s="6">
         <f>SUM(D$2:D88)/SUM(D$2:D$215)</f>
         <v>0.84366939174171518</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="6">
+        <f t="shared" si="1"/>
+        <v>5.8806456041262181E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3072,16 +3439,20 @@
       <c r="D89" s="5">
         <v>44032</v>
       </c>
-      <c r="E89" s="6">
+      <c r="F89" s="6">
         <f>SUM(C$2:C89)/SUM(C$2:C$215)</f>
         <v>0.82238603113556374</v>
       </c>
-      <c r="F89" s="6">
+      <c r="G89" s="6">
         <f>SUM(D$2:D89)/SUM(D$2:D$215)</f>
         <v>0.84705576534104454</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7568329051531968E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3094,16 +3465,20 @@
       <c r="D90" s="5">
         <v>43763</v>
       </c>
-      <c r="E90" s="6">
+      <c r="F90" s="6">
         <f>SUM(C$2:C90)/SUM(C$2:C$215)</f>
         <v>0.82643970823021085</v>
       </c>
-      <c r="F90" s="6">
+      <c r="G90" s="6">
         <f>SUM(D$2:D90)/SUM(D$2:D$215)</f>
         <v>0.85042145092942234</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7216633000594874E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3116,16 +3491,20 @@
       <c r="D91" s="5">
         <v>43004</v>
       </c>
-      <c r="E91" s="6">
+      <c r="F91" s="6">
         <f>SUM(C$2:C91)/SUM(C$2:C$215)</f>
         <v>0.83152906124435422</v>
       </c>
-      <c r="F91" s="6">
+      <c r="G91" s="6">
         <f>SUM(D$2:D91)/SUM(D$2:D$215)</f>
         <v>0.85372876402593312</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6224301020441514E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3138,16 +3517,20 @@
       <c r="D92" s="5">
         <v>41507</v>
       </c>
-      <c r="E92" s="6">
+      <c r="F92" s="6">
         <f>SUM(C$2:C92)/SUM(C$2:C$215)</f>
         <v>0.83518211871398129</v>
       </c>
-      <c r="F92" s="6">
+      <c r="G92" s="6">
         <f>SUM(D$2:D92)/SUM(D$2:D$215)</f>
         <v>0.85692094718789169</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4267092885672635E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3160,16 +3543,20 @@
       <c r="D93" s="5">
         <v>41313</v>
       </c>
-      <c r="E93" s="6">
+      <c r="F93" s="6">
         <f>SUM(C$2:C93)/SUM(C$2:C$215)</f>
         <v>0.83905774264195288</v>
       </c>
-      <c r="F93" s="6">
+      <c r="G93" s="6">
         <f>SUM(D$2:D93)/SUM(D$2:D$215)</f>
         <v>0.86009821037169198</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="6">
+        <f t="shared" si="1"/>
+        <v>5.401345335451354E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3182,16 +3569,20 @@
       <c r="D94" s="5">
         <v>40602</v>
       </c>
-      <c r="E94" s="6">
+      <c r="F94" s="6">
         <f>SUM(C$2:C94)/SUM(C$2:C$215)</f>
         <v>0.8406780264587006</v>
       </c>
-      <c r="F94" s="6">
+      <c r="G94" s="6">
         <f>SUM(D$2:D94)/SUM(D$2:D$215)</f>
         <v>0.86322079260461293</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="6">
+        <f t="shared" si="1"/>
+        <v>5.3083877547018099E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3204,16 +3595,20 @@
       <c r="D95" s="5">
         <v>38731</v>
       </c>
-      <c r="E95" s="6">
+      <c r="F95" s="6">
         <f>SUM(C$2:C95)/SUM(C$2:C$215)</f>
         <v>0.84325682982271843</v>
       </c>
-      <c r="F95" s="6">
+      <c r="G95" s="6">
         <f>SUM(D$2:D95)/SUM(D$2:D$215)</f>
         <v>0.86619948164611971</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0637694233622924E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3226,16 +3621,20 @@
       <c r="D96" s="5">
         <v>38587</v>
       </c>
-      <c r="E96" s="6">
+      <c r="F96" s="6">
         <f>SUM(C$2:C96)/SUM(C$2:C$215)</f>
         <v>0.84889221254800018</v>
       </c>
-      <c r="F96" s="6">
+      <c r="G96" s="6">
         <f>SUM(D$2:D96)/SUM(D$2:D$215)</f>
         <v>0.86916709606466347</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0449425715649164E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3248,16 +3647,20 @@
       <c r="D97" s="5">
         <v>38326</v>
       </c>
-      <c r="E97" s="6">
+      <c r="F97" s="6">
         <f>SUM(C$2:C97)/SUM(C$2:C$215)</f>
         <v>0.85162236110369227</v>
       </c>
-      <c r="F97" s="6">
+      <c r="G97" s="6">
         <f>SUM(D$2:D97)/SUM(D$2:D$215)</f>
         <v>0.87211463772908704</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="6">
+        <f t="shared" si="1"/>
+        <v>5.010818902682173E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3270,16 +3673,20 @@
       <c r="D98" s="5">
         <v>37845</v>
       </c>
-      <c r="E98" s="6">
+      <c r="F98" s="6">
         <f>SUM(C$2:C98)/SUM(C$2:C$215)</f>
         <v>0.85325451513155159</v>
       </c>
-      <c r="F98" s="6">
+      <c r="G98" s="6">
         <f>SUM(D$2:D98)/SUM(D$2:D$215)</f>
         <v>0.87502518707653021</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="6">
+        <f t="shared" si="1"/>
+        <v>4.947931987997882E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3292,16 +3699,20 @@
       <c r="D99" s="5">
         <v>37729</v>
       </c>
-      <c r="E99" s="6">
+      <c r="F99" s="6">
         <f>SUM(C$2:C99)/SUM(C$2:C$215)</f>
         <v>0.85576209722889918</v>
       </c>
-      <c r="F99" s="6">
+      <c r="G99" s="6">
         <f>SUM(D$2:D99)/SUM(D$2:D$215)</f>
         <v>0.87792681519992</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="6">
+        <f t="shared" si="1"/>
+        <v>4.932765912938885E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3314,16 +3725,20 @@
       <c r="D100" s="5">
         <v>36590</v>
       </c>
-      <c r="E100" s="6">
+      <c r="F100" s="6">
         <f>SUM(C$2:C100)/SUM(C$2:C$215)</f>
         <v>0.86212156283199493</v>
       </c>
-      <c r="F100" s="6">
+      <c r="G100" s="6">
         <f>SUM(D$2:D100)/SUM(D$2:D$215)</f>
         <v>0.88074084613195724</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="6">
+        <f t="shared" si="1"/>
+        <v>4.783850744902695E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3336,16 +3751,20 @@
       <c r="D101" s="5">
         <v>34598</v>
       </c>
-      <c r="E101" s="6">
+      <c r="F101" s="6">
         <f>SUM(C$2:C101)/SUM(C$2:C$215)</f>
         <v>0.86446889707933461</v>
       </c>
-      <c r="F101" s="6">
+      <c r="G101" s="6">
         <f>SUM(D$2:D101)/SUM(D$2:D$215)</f>
         <v>0.88340167811300729</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5234126283723274E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3358,16 +3777,20 @@
       <c r="D102" s="5">
         <v>33198</v>
       </c>
-      <c r="E102" s="6">
+      <c r="F102" s="6">
         <f>SUM(C$2:C102)/SUM(C$2:C$215)</f>
         <v>0.86745128762115031</v>
       </c>
-      <c r="F102" s="6">
+      <c r="G102" s="6">
         <f>SUM(D$2:D102)/SUM(D$2:D$215)</f>
         <v>0.8859548401485845</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3403737914533939E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3380,16 +3803,20 @@
       <c r="D103" s="5">
         <v>33132</v>
       </c>
-      <c r="E103" s="6">
+      <c r="F103" s="6">
         <f>SUM(C$2:C103)/SUM(C$2:C$215)</f>
         <v>0.86899144751289403</v>
       </c>
-      <c r="F103" s="6">
+      <c r="G103" s="6">
         <f>SUM(D$2:D103)/SUM(D$2:D$215)</f>
         <v>0.8885029263153037</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3317448177129299E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3402,16 +3829,20 @@
       <c r="D104" s="5">
         <v>33041</v>
       </c>
-      <c r="E104" s="6">
+      <c r="F104" s="6">
         <f>SUM(C$2:C104)/SUM(C$2:C$215)</f>
         <v>0.8716236668269145</v>
       </c>
-      <c r="F104" s="6">
+      <c r="G104" s="6">
         <f>SUM(D$2:D104)/SUM(D$2:D$215)</f>
         <v>0.8910440139355672</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="6">
+        <f t="shared" si="1"/>
+        <v>4.319847293313199E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3424,16 +3855,20 @@
       <c r="D105" s="5">
         <v>32670</v>
       </c>
-      <c r="E105" s="6">
+      <c r="F105" s="6">
         <f>SUM(C$2:C105)/SUM(C$2:C$215)</f>
         <v>0.8730599623714308</v>
       </c>
-      <c r="F105" s="6">
+      <c r="G105" s="6">
         <f>SUM(D$2:D105)/SUM(D$2:D$215)</f>
         <v>0.89355656902028036</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2713420015296814E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3446,16 +3881,20 @@
       <c r="D106" s="5">
         <v>32193</v>
       </c>
-      <c r="E106" s="6">
+      <c r="F106" s="6">
         <f>SUM(C$2:C106)/SUM(C$2:C$215)</f>
         <v>0.87580494869101244</v>
       </c>
-      <c r="F106" s="6">
+      <c r="G106" s="6">
         <f>SUM(D$2:D106)/SUM(D$2:D$215)</f>
         <v>0.89603243941642885</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2089780549508737E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3468,16 +3907,20 @@
       <c r="D107" s="5">
         <v>31542</v>
       </c>
-      <c r="E107" s="6">
+      <c r="F107" s="6">
         <f>SUM(C$2:C107)/SUM(C$2:C$215)</f>
         <v>0.87694448895773613</v>
       </c>
-      <c r="F107" s="6">
+      <c r="G107" s="6">
         <f>SUM(D$2:D107)/SUM(D$2:D$215)</f>
         <v>0.89845824328793256</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1238649957835695E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3490,16 +3933,20 @@
       <c r="D108" s="5">
         <v>31175</v>
       </c>
-      <c r="E108" s="6">
+      <c r="F108" s="6">
         <f>SUM(C$2:C108)/SUM(C$2:C$215)</f>
         <v>0.88010790021900542</v>
       </c>
-      <c r="F108" s="6">
+      <c r="G108" s="6">
         <f>SUM(D$2:D108)/SUM(D$2:D$215)</f>
         <v>0.90085582225230143</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0758826721055352E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3512,16 +3959,20 @@
       <c r="D109" s="5">
         <v>30895</v>
       </c>
-      <c r="E109" s="6">
+      <c r="F109" s="6">
         <f>SUM(C$2:C109)/SUM(C$2:C$215)</f>
         <v>0.88483521179424174</v>
       </c>
-      <c r="F109" s="6">
+      <c r="G109" s="6">
         <f>SUM(D$2:D109)/SUM(D$2:D$215)</f>
         <v>0.90323186722757576</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0392749047217485E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3534,16 +3985,20 @@
       <c r="D110" s="5">
         <v>30791</v>
       </c>
-      <c r="E110" s="6">
+      <c r="F110" s="6">
         <f>SUM(C$2:C110)/SUM(C$2:C$215)</f>
         <v>0.88781166723050164</v>
       </c>
-      <c r="F110" s="6">
+      <c r="G110" s="6">
         <f>SUM(D$2:D110)/SUM(D$2:D$215)</f>
         <v>0.90559991386404359</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0256777339791987E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3556,16 +4011,20 @@
       <c r="D111" s="5">
         <v>30322</v>
       </c>
-      <c r="E111" s="6">
+      <c r="F111" s="6">
         <f>SUM(C$2:C111)/SUM(C$2:C$215)</f>
         <v>0.88922422235279452</v>
       </c>
-      <c r="F111" s="6">
+      <c r="G111" s="6">
         <f>SUM(D$2:D111)/SUM(D$2:D$215)</f>
         <v>0.90793189106877803</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9643597236113562E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3578,16 +4037,20 @@
       <c r="D112" s="5">
         <v>30224</v>
       </c>
-      <c r="E112" s="6">
+      <c r="F112" s="6">
         <f>SUM(C$2:C112)/SUM(C$2:C$215)</f>
         <v>0.89079702532509542</v>
       </c>
-      <c r="F112" s="6">
+      <c r="G112" s="6">
         <f>SUM(D$2:D112)/SUM(D$2:D$215)</f>
         <v>0.91025633137732931</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9515470050270306E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3600,16 +4063,20 @@
       <c r="D113" s="5">
         <v>30041</v>
       </c>
-      <c r="E113" s="6">
+      <c r="F113" s="6">
         <f>SUM(C$2:C113)/SUM(C$2:C$215)</f>
         <v>0.89244104956406645</v>
       </c>
-      <c r="F113" s="6">
+      <c r="G113" s="6">
         <f>SUM(D$2:D113)/SUM(D$2:D$215)</f>
         <v>0.91256669768586529</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H113" s="6">
+        <f t="shared" si="1"/>
+        <v>3.927621214201199E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3622,16 +4089,20 @@
       <c r="D114" s="5">
         <v>29811</v>
       </c>
-      <c r="E114" s="6">
+      <c r="F114" s="6">
         <f>SUM(C$2:C114)/SUM(C$2:C$215)</f>
         <v>0.89486554018363218</v>
       </c>
-      <c r="F114" s="6">
+      <c r="G114" s="6">
         <f>SUM(D$2:D114)/SUM(D$2:D$215)</f>
         <v>0.9148593753605021</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8975505481359453E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3644,16 +4115,20 @@
       <c r="D115" s="5">
         <v>29440</v>
       </c>
-      <c r="E115" s="6">
+      <c r="F115" s="6">
         <f>SUM(C$2:C115)/SUM(C$2:C$215)</f>
         <v>0.89629886817537052</v>
       </c>
-      <c r="F115" s="6">
+      <c r="G115" s="6">
         <f>SUM(D$2:D115)/SUM(D$2:D$215)</f>
         <v>0.91712352049958856</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8490452563524284E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3666,16 +4141,20 @@
       <c r="D116" s="5">
         <v>29222</v>
       </c>
-      <c r="E116" s="6">
+      <c r="F116" s="6">
         <f>SUM(C$2:C116)/SUM(C$2:C$215)</f>
         <v>0.89933170711441102</v>
       </c>
-      <c r="F116" s="6">
+      <c r="G116" s="6">
         <f>SUM(D$2:D116)/SUM(D$2:D$215)</f>
         <v>0.91937089989002285</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8205434946036232E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3688,16 +4167,20 @@
       <c r="D117" s="5">
         <v>29017</v>
       </c>
-      <c r="E117" s="6">
+      <c r="F117" s="6">
         <f>SUM(C$2:C117)/SUM(C$2:C$215)</f>
         <v>0.90041189632557617</v>
       </c>
-      <c r="F117" s="6">
+      <c r="G117" s="6">
         <f>SUM(D$2:D117)/SUM(D$2:D$215)</f>
         <v>0.92160251332415577</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H117" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7937413791976363E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3710,16 +4193,20 @@
       <c r="D118" s="5">
         <v>28661</v>
       </c>
-      <c r="E118" s="6">
+      <c r="F118" s="6">
         <f>SUM(C$2:C118)/SUM(C$2:C$215)</f>
         <v>0.90279187365347291</v>
       </c>
-      <c r="F118" s="6">
+      <c r="G118" s="6">
         <f>SUM(D$2:D118)/SUM(D$2:D$215)</f>
         <v>0.92380674782929695</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7471972178096787E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3732,16 +4219,20 @@
       <c r="D119" s="5">
         <v>27959</v>
       </c>
-      <c r="E119" s="6">
+      <c r="F119" s="6">
         <f>SUM(C$2:C119)/SUM(C$2:C$215)</f>
         <v>0.90888722705933322</v>
       </c>
-      <c r="F119" s="6">
+      <c r="G119" s="6">
         <f>SUM(D$2:D119)/SUM(D$2:D$215)</f>
         <v>0.92595699354749395</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" s="6">
+        <f t="shared" si="1"/>
+        <v>3.655416315297471E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3754,16 +4245,20 @@
       <c r="D120" s="5">
         <v>27773</v>
       </c>
-      <c r="E120" s="6">
+      <c r="F120" s="6">
         <f>SUM(C$2:C120)/SUM(C$2:C$215)</f>
         <v>0.91360266842345794</v>
       </c>
-      <c r="F120" s="6">
+      <c r="G120" s="6">
         <f>SUM(D$2:D120)/SUM(D$2:D$215)</f>
         <v>0.92809293454436381</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6310982983925266E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3776,16 +4271,20 @@
       <c r="D121" s="5">
         <v>26243</v>
       </c>
-      <c r="E121" s="6">
+      <c r="F121" s="6">
         <f>SUM(C$2:C121)/SUM(C$2:C$215)</f>
         <v>0.91680169031806236</v>
       </c>
-      <c r="F121" s="6">
+      <c r="G121" s="6">
         <f>SUM(D$2:D121)/SUM(D$2:D$215)</f>
         <v>0.93011120767225264</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4310629980454067E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3798,16 +4297,20 @@
       <c r="D122" s="5">
         <v>26069</v>
       </c>
-      <c r="E122" s="6">
+      <c r="F122" s="6">
         <f>SUM(C$2:C122)/SUM(C$2:C$215)</f>
         <v>0.92022031111823321</v>
       </c>
-      <c r="F122" s="6">
+      <c r="G122" s="6">
         <f>SUM(D$2:D122)/SUM(D$2:D$215)</f>
         <v>0.93211609896406133</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H122" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4083138854569109E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3820,16 +4323,20 @@
       <c r="D123" s="5">
         <v>24768</v>
       </c>
-      <c r="E123" s="6">
+      <c r="F123" s="6">
         <f>SUM(C$2:C123)/SUM(C$2:C$215)</f>
         <v>0.9228762708544771</v>
       </c>
-      <c r="F123" s="6">
+      <c r="G123" s="6">
         <f>SUM(D$2:D123)/SUM(D$2:D$215)</f>
         <v>0.93402093411368403</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H123" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2382185091486736E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3842,16 +4349,20 @@
       <c r="D124" s="5">
         <v>24594</v>
       </c>
-      <c r="E124" s="6">
+      <c r="F124" s="6">
         <f>SUM(C$2:C124)/SUM(C$2:C$215)</f>
         <v>0.92389710901008371</v>
       </c>
-      <c r="F124" s="6">
+      <c r="G124" s="6">
         <f>SUM(D$2:D124)/SUM(D$2:D$215)</f>
         <v>0.9359123874272266</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" s="6">
+        <f t="shared" si="1"/>
+        <v>3.215469396560177E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3864,16 +4375,20 @@
       <c r="D125" s="5">
         <v>23807</v>
       </c>
-      <c r="E125" s="6">
+      <c r="F125" s="6">
         <f>SUM(C$2:C125)/SUM(C$2:C$215)</f>
         <v>0.92588833692407224</v>
       </c>
-      <c r="F125" s="6">
+      <c r="G125" s="6">
         <f>SUM(D$2:D125)/SUM(D$2:D$215)</f>
         <v>0.93774331484999274</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H125" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1125754218064627E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3886,16 +4401,20 @@
       <c r="D126" s="5">
         <v>23509</v>
       </c>
-      <c r="E126" s="6">
+      <c r="F126" s="6">
         <f>SUM(C$2:C126)/SUM(C$2:C$215)</f>
         <v>0.92931289282979901</v>
       </c>
-      <c r="F126" s="6">
+      <c r="G126" s="6">
         <f>SUM(D$2:D126)/SUM(D$2:D$215)</f>
         <v>0.93955132395579377</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" s="6">
+        <f t="shared" si="1"/>
+        <v>3.073614297948004E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3908,16 +4427,20 @@
       <c r="D127" s="5">
         <v>23294</v>
       </c>
-      <c r="E127" s="6">
+      <c r="F127" s="6">
         <f>SUM(C$2:C127)/SUM(C$2:C$215)</f>
         <v>0.93248817430218001</v>
       </c>
-      <c r="F127" s="6">
+      <c r="G127" s="6">
         <f>SUM(D$2:D127)/SUM(D$2:D$215)</f>
         <v>0.94134279803425447</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0455047622783105E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3930,16 +4453,20 @@
       <c r="D128" s="5">
         <v>23291</v>
       </c>
-      <c r="E128" s="6">
+      <c r="F128" s="6">
         <f>SUM(C$2:C128)/SUM(C$2:C$215)</f>
         <v>0.93586524936345994</v>
       </c>
-      <c r="F128" s="6">
+      <c r="G128" s="6">
         <f>SUM(D$2:D128)/SUM(D$2:D$215)</f>
         <v>0.94313404139140333</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H128" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0451125361991984E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3952,16 +4479,20 @@
       <c r="D129" s="5">
         <v>23221</v>
       </c>
-      <c r="E129" s="6">
+      <c r="F129" s="6">
         <f>SUM(C$2:C129)/SUM(C$2:C$215)</f>
         <v>0.94042341043035449</v>
       </c>
-      <c r="F129" s="6">
+      <c r="G129" s="6">
         <f>SUM(D$2:D129)/SUM(D$2:D$215)</f>
         <v>0.94491990125127856</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H129" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0359605943532517E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3974,16 +4505,20 @@
       <c r="D130" s="5">
         <v>22385</v>
       </c>
-      <c r="E130" s="6">
+      <c r="F130" s="6">
         <f>SUM(C$2:C130)/SUM(C$2:C$215)</f>
         <v>0.94142644326929359</v>
       </c>
-      <c r="F130" s="6">
+      <c r="G130" s="6">
         <f>SUM(D$2:D130)/SUM(D$2:D$215)</f>
         <v>0.94664146677228578</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H130" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9266602603073746E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3996,16 +4531,20 @@
       <c r="D131" s="5">
         <v>20767</v>
       </c>
-      <c r="E131" s="6">
+      <c r="F131" s="6">
         <f>SUM(C$2:C131)/SUM(C$2:C$215)</f>
         <v>0.94230780644433765</v>
       </c>
-      <c r="F131" s="6">
+      <c r="G131" s="6">
         <f>SUM(D$2:D131)/SUM(D$2:D$215)</f>
         <v>0.94823859659916787</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H131" s="6">
+        <f t="shared" ref="H131:H194" si="2">D131/764865</f>
+        <v>2.7151196616396357E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4018,16 +4557,20 @@
       <c r="D132" s="5">
         <v>19956</v>
       </c>
-      <c r="E132" s="6">
+      <c r="F132" s="6">
         <f>SUM(C$2:C132)/SUM(C$2:C$215)</f>
         <v>0.94313872122215692</v>
       </c>
-      <c r="F132" s="6">
+      <c r="G132" s="6">
         <f>SUM(D$2:D132)/SUM(D$2:D$215)</f>
         <v>0.94977335476477964</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" s="6">
+        <f t="shared" si="2"/>
+        <v>2.609087878253025E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4040,16 +4583,20 @@
       <c r="D133" s="5">
         <v>18697</v>
       </c>
-      <c r="E133" s="6">
+      <c r="F133" s="6">
         <f>SUM(C$2:C133)/SUM(C$2:C$215)</f>
         <v>0.94412098119165044</v>
       </c>
-      <c r="F133" s="6">
+      <c r="G133" s="6">
         <f>SUM(D$2:D133)/SUM(D$2:D$215)</f>
         <v>0.95121128688656975</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4444836670523558E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4062,16 +4609,20 @@
       <c r="D134" s="5">
         <v>18671</v>
       </c>
-      <c r="E134" s="6">
+      <c r="F134" s="6">
         <f>SUM(C$2:C134)/SUM(C$2:C$215)</f>
         <v>0.94517742998059218</v>
       </c>
-      <c r="F134" s="6">
+      <c r="G134" s="6">
         <f>SUM(D$2:D134)/SUM(D$2:D$215)</f>
         <v>0.95264721942365815</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4410843743667181E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4084,16 +4635,20 @@
       <c r="D135" s="5">
         <v>18534</v>
       </c>
-      <c r="E135" s="6">
+      <c r="F135" s="6">
         <f>SUM(C$2:C135)/SUM(C$2:C$215)</f>
         <v>0.94588964264729447</v>
       </c>
-      <c r="F135" s="6">
+      <c r="G135" s="6">
         <f>SUM(D$2:D135)/SUM(D$2:D$215)</f>
         <v>0.95407261568751101</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H135" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4231727167539369E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4106,16 +4661,20 @@
       <c r="D136" s="5">
         <v>18130</v>
       </c>
-      <c r="E136" s="6">
+      <c r="F136" s="6">
         <f>SUM(C$2:C136)/SUM(C$2:C$215)</f>
         <v>0.94715975523624685</v>
       </c>
-      <c r="F136" s="6">
+      <c r="G136" s="6">
         <f>SUM(D$2:D136)/SUM(D$2:D$215)</f>
         <v>0.95546694148138467</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H136" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3703529381001877E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4128,16 +4687,20 @@
       <c r="D137" s="5">
         <v>18069</v>
       </c>
-      <c r="E137" s="6">
+      <c r="F137" s="6">
         <f>SUM(C$2:C137)/SUM(C$2:C$215)</f>
         <v>0.94875629863077116</v>
       </c>
-      <c r="F137" s="6">
+      <c r="G137" s="6">
         <f>SUM(D$2:D137)/SUM(D$2:D$215)</f>
         <v>0.95685657594191975</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H137" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3623776744915771E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4150,16 +4713,20 @@
       <c r="D138" s="5">
         <v>17637</v>
       </c>
-      <c r="E138" s="6">
+      <c r="F138" s="6">
         <f>SUM(C$2:C138)/SUM(C$2:C$215)</f>
         <v>0.95032019894473818</v>
       </c>
-      <c r="F138" s="6">
+      <c r="G138" s="6">
         <f>SUM(D$2:D138)/SUM(D$2:D$215)</f>
         <v>0.95821298653356612</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H138" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3058971190994489E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4172,16 +4739,20 @@
       <c r="D139" s="5">
         <v>17500</v>
       </c>
-      <c r="E139" s="6">
+      <c r="F139" s="6">
         <f>SUM(C$2:C139)/SUM(C$2:C$215)</f>
         <v>0.95146270676423983</v>
       </c>
-      <c r="F139" s="6">
+      <c r="G139" s="6">
         <f>SUM(D$2:D139)/SUM(D$2:D$215)</f>
         <v>0.95955886085197695</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H139" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2879854614866676E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4194,16 +4765,20 @@
       <c r="D140" s="5">
         <v>17400</v>
       </c>
-      <c r="E140" s="6">
+      <c r="F140" s="6">
         <f>SUM(C$2:C140)/SUM(C$2:C$215)</f>
         <v>0.95251618800040361</v>
       </c>
-      <c r="F140" s="6">
+      <c r="G140" s="6">
         <f>SUM(D$2:D140)/SUM(D$2:D$215)</f>
         <v>0.9608970444599968</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H140" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2749112588496011E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4216,16 +4791,20 @@
       <c r="D141" s="5">
         <v>16696</v>
       </c>
-      <c r="E141" s="6">
+      <c r="F141" s="6">
         <f>SUM(C$2:C141)/SUM(C$2:C$215)</f>
         <v>0.95369133890046232</v>
       </c>
-      <c r="F141" s="6">
+      <c r="G141" s="6">
         <f>SUM(D$2:D141)/SUM(D$2:D$215)</f>
         <v>0.96218108546686454</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H141" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1828688722846514E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4238,16 +4817,20 @@
       <c r="D142" s="5">
         <v>16476</v>
       </c>
-      <c r="E142" s="6">
+      <c r="F142" s="6">
         <f>SUM(C$2:C142)/SUM(C$2:C$215)</f>
         <v>0.95537097377276858</v>
       </c>
-      <c r="F142" s="6">
+      <c r="G142" s="6">
         <f>SUM(D$2:D142)/SUM(D$2:D$215)</f>
         <v>0.96344820691087241</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H142" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1541056264831049E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4260,16 +4843,20 @@
       <c r="D143" s="5">
         <v>16396</v>
       </c>
-      <c r="E143" s="6">
+      <c r="F143" s="6">
         <f>SUM(C$2:C143)/SUM(C$2:C$215)</f>
         <v>0.95943652107852739</v>
       </c>
-      <c r="F143" s="6">
+      <c r="G143" s="6">
         <f>SUM(D$2:D143)/SUM(D$2:D$215)</f>
         <v>0.96470917578656745</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H143" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1436462643734517E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4282,16 +4869,20 @@
       <c r="D144" s="5">
         <v>16150</v>
       </c>
-      <c r="E144" s="6">
+      <c r="F144" s="6">
         <f>SUM(C$2:C144)/SUM(C$2:C$215)</f>
         <v>0.96041284594246512</v>
       </c>
-      <c r="F144" s="6">
+      <c r="G144" s="6">
         <f>SUM(D$2:D144)/SUM(D$2:D$215)</f>
         <v>0.96595122551470081</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H144" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1114837258862675E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4304,16 +4895,20 @@
       <c r="D145" s="5">
         <v>15177</v>
       </c>
-      <c r="E145" s="6">
+      <c r="F145" s="6">
         <f>SUM(C$2:C145)/SUM(C$2:C$215)</f>
         <v>0.9627779855064722</v>
       </c>
-      <c r="F145" s="6">
+      <c r="G145" s="6">
         <f>SUM(D$2:D145)/SUM(D$2:D$215)</f>
         <v>0.96711844463073049</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H145" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9842717342276089E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4326,16 +4921,20 @@
       <c r="D146" s="5">
         <v>14289</v>
       </c>
-      <c r="E146" s="6">
+      <c r="F146" s="6">
         <f>SUM(C$2:C146)/SUM(C$2:C$215)</f>
         <v>0.96352284125373167</v>
       </c>
-      <c r="F146" s="6">
+      <c r="G146" s="6">
         <f>SUM(D$2:D146)/SUM(D$2:D$215)</f>
         <v>0.96821737023848897</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H146" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8681728148104568E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4348,16 +4947,20 @@
       <c r="D147" s="5">
         <v>13665</v>
       </c>
-      <c r="E147" s="6">
+      <c r="F147" s="6">
         <f>SUM(C$2:C147)/SUM(C$2:C$215)</f>
         <v>0.9643685937954406</v>
       </c>
-      <c r="F147" s="6">
+      <c r="G147" s="6">
         <f>SUM(D$2:D147)/SUM(D$2:D$215)</f>
         <v>0.96926830581340795</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H147" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7865897903551607E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4370,16 +4973,20 @@
       <c r="D148" s="5">
         <v>12858</v>
       </c>
-      <c r="E148" s="6">
+      <c r="F148" s="6">
         <f>SUM(C$2:C148)/SUM(C$2:C$215)</f>
         <v>0.96510157933158847</v>
       </c>
-      <c r="F148" s="6">
+      <c r="G148" s="6">
         <f>SUM(D$2:D148)/SUM(D$2:D$215)</f>
         <v>0.97025717735547234</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H148" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6810809750740327E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4392,16 +4999,20 @@
       <c r="D149" s="5">
         <v>12305</v>
       </c>
-      <c r="E149" s="6">
+      <c r="F149" s="6">
         <f>SUM(C$2:C149)/SUM(C$2:C$215)</f>
         <v>0.96610461217052745</v>
       </c>
-      <c r="F149" s="6">
+      <c r="G149" s="6">
         <f>SUM(D$2:D149)/SUM(D$2:D$215)</f>
         <v>0.97120351926907489</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H149" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6087806344910541E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4414,16 +5025,20 @@
       <c r="D150" s="5">
         <v>12174</v>
       </c>
-      <c r="E150" s="6">
+      <c r="F150" s="6">
         <f>SUM(C$2:C150)/SUM(C$2:C$215)</f>
         <v>0.9666150312483307</v>
       </c>
-      <c r="F150" s="6">
+      <c r="G150" s="6">
         <f>SUM(D$2:D150)/SUM(D$2:D$215)</f>
         <v>0.97213978635206533</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H150" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5916534290364968E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4436,16 +5051,20 @@
       <c r="D151" s="5">
         <v>12131</v>
       </c>
-      <c r="E151" s="6">
+      <c r="F151" s="6">
         <f>SUM(C$2:C151)/SUM(C$2:C$215)</f>
         <v>0.96712248277335611</v>
       </c>
-      <c r="F151" s="6">
+      <c r="G151" s="6">
         <f>SUM(D$2:D151)/SUM(D$2:D$215)</f>
         <v>0.97307274642958774</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H151" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5860315219025579E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4458,16 +5077,20 @@
       <c r="D152" s="5">
         <v>12070</v>
       </c>
-      <c r="E152" s="6">
+      <c r="F152" s="6">
         <f>SUM(C$2:C152)/SUM(C$2:C$215)</f>
         <v>0.96859735650398537</v>
       </c>
-      <c r="F152" s="6">
+      <c r="G152" s="6">
         <f>SUM(D$2:D152)/SUM(D$2:D$215)</f>
         <v>0.97400101517377158</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H152" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5780562582939472E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4480,16 +5103,20 @@
       <c r="D153" s="5">
         <v>11825</v>
       </c>
-      <c r="E153" s="6">
+      <c r="F153" s="6">
         <f>SUM(C$2:C153)/SUM(C$2:C$215)</f>
         <v>0.96958555157903481</v>
       </c>
-      <c r="F153" s="6">
+      <c r="G153" s="6">
         <f>SUM(D$2:D153)/SUM(D$2:D$215)</f>
         <v>0.97491044167749774</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H153" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5460244618331339E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4502,16 +5129,20 @@
       <c r="D154" s="5">
         <v>11382</v>
       </c>
-      <c r="E154" s="6">
+      <c r="F154" s="6">
         <f>SUM(C$2:C154)/SUM(C$2:C$215)</f>
         <v>0.9702977642457371</v>
       </c>
-      <c r="F154" s="6">
+      <c r="G154" s="6">
         <f>SUM(D$2:D154)/SUM(D$2:D$215)</f>
         <v>0.9757857983341921</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H154" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4881057441509285E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4524,16 +5155,20 @@
       <c r="D155" s="5">
         <v>11141</v>
       </c>
-      <c r="E155" s="6">
+      <c r="F155" s="6">
         <f>SUM(C$2:C155)/SUM(C$2:C$215)</f>
         <v>0.97132453750689951</v>
       </c>
-      <c r="F155" s="6">
+      <c r="G155" s="6">
         <f>SUM(D$2:D155)/SUM(D$2:D$215)</f>
         <v>0.97664262037884442</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H155" s="6">
+        <f t="shared" si="2"/>
+        <v>1.456596915795598E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4546,16 +5181,20 @@
       <c r="D156" s="5">
         <v>10959</v>
       </c>
-      <c r="E156" s="6">
+      <c r="F156" s="6">
         <f>SUM(C$2:C156)/SUM(C$2:C$215)</f>
         <v>0.97221480334027743</v>
       </c>
-      <c r="F156" s="6">
+      <c r="G156" s="6">
         <f>SUM(D$2:D156)/SUM(D$2:D$215)</f>
         <v>0.97748544533058523</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H156" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4328018669961366E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4568,16 +5207,20 @@
       <c r="D157" s="5">
         <v>10705</v>
       </c>
-      <c r="E157" s="6">
+      <c r="F157" s="6">
         <f>SUM(C$2:C157)/SUM(C$2:C$215)</f>
         <v>0.9728112814486406</v>
       </c>
-      <c r="F157" s="6">
+      <c r="G157" s="6">
         <f>SUM(D$2:D157)/SUM(D$2:D$215)</f>
         <v>0.9783087358779331</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H157" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3995933922979872E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4590,16 +5233,20 @@
       <c r="D158" s="5">
         <v>10661</v>
       </c>
-      <c r="E158" s="6">
+      <c r="F158" s="6">
         <f>SUM(C$2:C158)/SUM(C$2:C$215)</f>
         <v>0.97386773023758233</v>
       </c>
-      <c r="F158" s="6">
+      <c r="G158" s="6">
         <f>SUM(D$2:D158)/SUM(D$2:D$215)</f>
         <v>0.97912864251270892</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H158" s="6">
+        <f t="shared" si="2"/>
+        <v>1.393840743137678E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4612,16 +5259,20 @@
       <c r="D159" s="5">
         <v>10128</v>
       </c>
-      <c r="E159" s="6">
+      <c r="F159" s="6">
         <f>SUM(C$2:C159)/SUM(C$2:C$215)</f>
         <v>0.97450575408483642</v>
       </c>
-      <c r="F159" s="6">
+      <c r="G159" s="6">
         <f>SUM(D$2:D159)/SUM(D$2:D$215)</f>
         <v>0.97990755766110116</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H159" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3241552430821125E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4634,16 +5285,20 @@
       <c r="D160" s="5">
         <v>10069</v>
       </c>
-      <c r="E160" s="6">
+      <c r="F160" s="6">
         <f>SUM(C$2:C160)/SUM(C$2:C$215)</f>
         <v>0.9754909816071079</v>
       </c>
-      <c r="F160" s="6">
+      <c r="G160" s="6">
         <f>SUM(D$2:D160)/SUM(D$2:D$215)</f>
         <v>0.98068193529036274</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H160" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3164414635262432E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4656,16 +5311,20 @@
       <c r="D161" s="5">
         <v>9831</v>
       </c>
-      <c r="E161" s="6">
+      <c r="F161" s="6">
         <f>SUM(C$2:C161)/SUM(C$2:C$215)</f>
         <v>0.97647027402382347</v>
       </c>
-      <c r="F161" s="6">
+      <c r="G161" s="6">
         <f>SUM(D$2:D161)/SUM(D$2:D$215)</f>
         <v>0.981438009028894</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H161" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2853248612500244E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4678,16 +5337,20 @@
       <c r="D162" s="5">
         <v>9800</v>
       </c>
-      <c r="E162" s="6">
+      <c r="F162" s="6">
         <f>SUM(C$2:C162)/SUM(C$2:C$215)</f>
         <v>0.97708752500163221</v>
       </c>
-      <c r="F162" s="6">
+      <c r="G162" s="6">
         <f>SUM(D$2:D162)/SUM(D$2:D$215)</f>
         <v>0.98219169864720401</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H162" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2812718584325339E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4700,16 +5363,20 @@
       <c r="D163" s="5">
         <v>9602</v>
       </c>
-      <c r="E163" s="6">
+      <c r="F163" s="6">
         <f>SUM(C$2:C163)/SUM(C$2:C$215)</f>
         <v>0.97793624509611898</v>
       </c>
-      <c r="F163" s="6">
+      <c r="G163" s="6">
         <f>SUM(D$2:D163)/SUM(D$2:D$215)</f>
         <v>0.98293016065894001</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H163" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2553849372111419E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4722,16 +5389,20 @@
       <c r="D164" s="5">
         <v>9305</v>
       </c>
-      <c r="E164" s="6">
+      <c r="F164" s="6">
         <f>SUM(C$2:C164)/SUM(C$2:C$215)</f>
         <v>0.97895114814616979</v>
       </c>
-      <c r="F164" s="6">
+      <c r="G164" s="6">
         <f>SUM(D$2:D164)/SUM(D$2:D$215)</f>
         <v>0.98364578126081503</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H164" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2165545553790538E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4744,16 +5415,20 @@
       <c r="D165" s="5">
         <v>9015</v>
       </c>
-      <c r="E165" s="6">
+      <c r="F165" s="6">
         <f>SUM(C$2:C165)/SUM(C$2:C$215)</f>
         <v>0.97930131937396503</v>
       </c>
-      <c r="F165" s="6">
+      <c r="G165" s="6">
         <f>SUM(D$2:D165)/SUM(D$2:D$215)</f>
         <v>0.98433909880255643</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H165" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1786393677315606E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4766,16 +5441,20 @@
       <c r="D166" s="5">
         <v>8662</v>
       </c>
-      <c r="E166" s="6">
+      <c r="F166" s="6">
         <f>SUM(C$2:C166)/SUM(C$2:C$215)</f>
         <v>0.97942595659063791</v>
       </c>
-      <c r="F166" s="6">
+      <c r="G166" s="6">
         <f>SUM(D$2:D166)/SUM(D$2:D$215)</f>
         <v>0.98500526813661782</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H166" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1324874324227151E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4788,16 +5467,20 @@
       <c r="D167" s="5">
         <v>8651</v>
       </c>
-      <c r="E167" s="6">
+      <c r="F167" s="6">
         <f>SUM(C$2:C167)/SUM(C$2:C$215)</f>
         <v>0.9802064229712325</v>
       </c>
-      <c r="F167" s="6">
+      <c r="G167" s="6">
         <f>SUM(D$2:D167)/SUM(D$2:D$215)</f>
         <v>0.98567059149253622</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H167" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1310492701326377E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4810,16 +5493,20 @@
       <c r="D168" s="5">
         <v>8647</v>
       </c>
-      <c r="E168" s="6">
+      <c r="F168" s="6">
         <f>SUM(C$2:C168)/SUM(C$2:C$215)</f>
         <v>0.98061297770180844</v>
       </c>
-      <c r="F168" s="6">
+      <c r="G168" s="6">
         <f>SUM(D$2:D168)/SUM(D$2:D$215)</f>
         <v>0.98633560722003888</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H168" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1305263020271551E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4832,16 +5519,20 @@
       <c r="D169" s="5">
         <v>8645</v>
       </c>
-      <c r="E169" s="6">
+      <c r="F169" s="6">
         <f>SUM(C$2:C169)/SUM(C$2:C$215)</f>
         <v>0.98113823454350135</v>
       </c>
-      <c r="F169" s="6">
+      <c r="G169" s="6">
         <f>SUM(D$2:D169)/SUM(D$2:D$215)</f>
         <v>0.98700046913333384</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H169" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1302648179744138E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4854,16 +5545,20 @@
       <c r="D170" s="5">
         <v>8256</v>
       </c>
-      <c r="E170" s="6">
+      <c r="F170" s="6">
         <f>SUM(C$2:C170)/SUM(C$2:C$215)</f>
         <v>0.98148543821851875</v>
       </c>
-      <c r="F170" s="6">
+      <c r="G170" s="6">
         <f>SUM(D$2:D170)/SUM(D$2:D$215)</f>
         <v>0.9876354141832081</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H170" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0794061697162243E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4876,16 +5571,20 @@
       <c r="D171" s="5">
         <v>7553</v>
       </c>
-      <c r="E171" s="6">
+      <c r="F171" s="6">
         <f>SUM(C$2:C171)/SUM(C$2:C$215)</f>
         <v>0.98161601054074743</v>
       </c>
-      <c r="F171" s="6">
+      <c r="G171" s="6">
         <f>SUM(D$2:D171)/SUM(D$2:D$215)</f>
         <v>0.98821629353903417</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H171" s="6">
+        <f t="shared" si="2"/>
+        <v>9.8749452517764569E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4898,16 +5597,20 @@
       <c r="D172" s="5">
         <v>7065</v>
       </c>
-      <c r="E172" s="6">
+      <c r="F172" s="6">
         <f>SUM(C$2:C172)/SUM(C$2:C$215)</f>
         <v>0.98278522633525034</v>
       </c>
-      <c r="F172" s="6">
+      <c r="G172" s="6">
         <f>SUM(D$2:D172)/SUM(D$2:D$215)</f>
         <v>0.9887596422281526</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H172" s="6">
+        <f t="shared" si="2"/>
+        <v>9.236924163087603E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4920,16 +5623,20 @@
       <c r="D173" s="5">
         <v>6973</v>
       </c>
-      <c r="E173" s="6">
+      <c r="F173" s="6">
         <f>SUM(C$2:C173)/SUM(C$2:C$215)</f>
         <v>0.9844589261020007</v>
       </c>
-      <c r="F173" s="6">
+      <c r="G173" s="6">
         <f>SUM(D$2:D173)/SUM(D$2:D$215)</f>
         <v>0.98929591546371143</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H173" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1166414988265911E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4942,16 +5649,20 @@
       <c r="D174" s="5">
         <v>6730</v>
       </c>
-      <c r="E174" s="6">
+      <c r="F174" s="6">
         <f>SUM(C$2:C174)/SUM(C$2:C$215)</f>
         <v>0.98474677872145955</v>
       </c>
-      <c r="F174" s="6">
+      <c r="G174" s="6">
         <f>SUM(D$2:D174)/SUM(D$2:D$215)</f>
         <v>0.98981350027302017</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H174" s="6">
+        <f t="shared" si="2"/>
+        <v>8.7989383747458707E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4964,16 +5675,20 @@
       <c r="D175" s="5">
         <v>6711</v>
       </c>
-      <c r="E175" s="6">
+      <c r="F175" s="6">
         <f>SUM(C$2:C175)/SUM(C$2:C$215)</f>
         <v>0.98503166378814044</v>
       </c>
-      <c r="F175" s="6">
+      <c r="G175" s="6">
         <f>SUM(D$2:D175)/SUM(D$2:D$215)</f>
         <v>0.99032962384735479</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H175" s="6">
+        <f t="shared" si="2"/>
+        <v>8.7740973897354434E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4986,16 +5701,20 @@
       <c r="D176" s="5">
         <v>6519</v>
       </c>
-      <c r="E176" s="6">
+      <c r="F176" s="6">
         <f>SUM(C$2:C176)/SUM(C$2:C$215)</f>
         <v>0.98545008872982809</v>
       </c>
-      <c r="F176" s="6">
+      <c r="G176" s="6">
         <f>SUM(D$2:D176)/SUM(D$2:D$215)</f>
         <v>0.99083098125773883</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H176" s="6">
+        <f t="shared" si="2"/>
+        <v>8.5230726991037641E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5008,16 +5727,20 @@
       <c r="D177" s="5">
         <v>6440</v>
       </c>
-      <c r="E177" s="6">
+      <c r="F177" s="6">
         <f>SUM(C$2:C177)/SUM(C$2:C$215)</f>
         <v>0.98569936316317386</v>
       </c>
-      <c r="F177" s="6">
+      <c r="G177" s="6">
         <f>SUM(D$2:D177)/SUM(D$2:D$215)</f>
         <v>0.99132626300691395</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H177" s="6">
+        <f t="shared" si="2"/>
+        <v>8.4197864982709369E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5030,16 +5753,20 @@
       <c r="D178" s="5">
         <v>6045</v>
       </c>
-      <c r="E178" s="6">
+      <c r="F178" s="6">
         <f>SUM(C$2:C178)/SUM(C$2:C$215)</f>
         <v>0.98649466730765811</v>
       </c>
-      <c r="F178" s="6">
+      <c r="G178" s="6">
         <f>SUM(D$2:D178)/SUM(D$2:D$215)</f>
         <v>0.99179116645004495</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H178" s="6">
+        <f t="shared" si="2"/>
+        <v>7.9033554941068031E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5052,16 +5779,20 @@
       <c r="D179" s="5">
         <v>5840</v>
       </c>
-      <c r="E179" s="6">
+      <c r="F179" s="6">
         <f>SUM(C$2:C179)/SUM(C$2:C$215)</f>
         <v>0.98863130530776488</v>
       </c>
-      <c r="F179" s="6">
+      <c r="G179" s="6">
         <f>SUM(D$2:D179)/SUM(D$2:D$215)</f>
         <v>0.99224030393687468</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H179" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6353343400469365E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5074,16 +5805,20 @@
       <c r="D180" s="5">
         <v>5756</v>
       </c>
-      <c r="E180" s="6">
+      <c r="F180" s="6">
         <f>SUM(C$2:C180)/SUM(C$2:C$215)</f>
         <v>0.9895215711411427</v>
       </c>
-      <c r="F180" s="6">
+      <c r="G180" s="6">
         <f>SUM(D$2:D180)/SUM(D$2:D$215)</f>
         <v>0.99268298122697596</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H180" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5255110378955759E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5096,16 +5831,20 @@
       <c r="D181" s="5">
         <v>5416</v>
       </c>
-      <c r="E181" s="6">
+      <c r="F181" s="6">
         <f>SUM(C$2:C181)/SUM(C$2:C$215)</f>
         <v>0.98972039717726379</v>
       </c>
-      <c r="F181" s="6">
+      <c r="G181" s="6">
         <f>SUM(D$2:D181)/SUM(D$2:D$215)</f>
         <v>0.99309951010174813</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H181" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0809881482353093E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5118,16 +5857,20 @@
       <c r="D182" s="5">
         <v>5163</v>
       </c>
-      <c r="E182" s="6">
+      <c r="F182" s="6">
         <f>SUM(C$2:C182)/SUM(C$2:C$215)</f>
         <v>0.99023378380784499</v>
       </c>
-      <c r="F182" s="6">
+      <c r="G182" s="6">
         <f>SUM(D$2:D182)/SUM(D$2:D$215)</f>
         <v>0.99349658147923126</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H182" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7502108215175228E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5140,16 +5883,20 @@
       <c r="D183" s="5">
         <v>5073</v>
       </c>
-      <c r="E183" s="6">
+      <c r="F183" s="6">
         <f>SUM(C$2:C183)/SUM(C$2:C$215)</f>
         <v>0.99092225605232387</v>
       </c>
-      <c r="F183" s="6">
+      <c r="G183" s="6">
         <f>SUM(D$2:D183)/SUM(D$2:D$215)</f>
         <v>0.9938867312173626</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H183" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6325429977839223E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5162,16 +5909,20 @@
       <c r="D184" s="5">
         <v>4937</v>
       </c>
-      <c r="E184" s="6">
+      <c r="F184" s="6">
         <f>SUM(C$2:C184)/SUM(C$2:C$215)</f>
         <v>0.99203212079126823</v>
       </c>
-      <c r="F184" s="6">
+      <c r="G184" s="6">
         <f>SUM(D$2:D184)/SUM(D$2:D$215)</f>
         <v>0.99426642158936218</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H184" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4547338419198158E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5184,16 +5935,20 @@
       <c r="D185" s="5">
         <v>4753</v>
       </c>
-      <c r="E185" s="6">
+      <c r="F185" s="6">
         <f>SUM(C$2:C185)/SUM(C$2:C$215)</f>
         <v>0.99259892337185218</v>
       </c>
-      <c r="F185" s="6">
+      <c r="G185" s="6">
         <f>SUM(D$2:D185)/SUM(D$2:D$215)</f>
         <v>0.99463196105424256</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H185" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2141685133977895E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5206,16 +5961,20 @@
       <c r="D186" s="5">
         <v>4609</v>
       </c>
-      <c r="E186" s="6">
+      <c r="F186" s="6">
         <f>SUM(C$2:C186)/SUM(C$2:C$215)</f>
         <v>0.99293722438853571</v>
       </c>
-      <c r="F186" s="6">
+      <c r="G186" s="6">
         <f>SUM(D$2:D186)/SUM(D$2:D$215)</f>
         <v>0.99498642589616004</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H186" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0258999954240292E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5228,16 +5987,20 @@
       <c r="D187" s="5">
         <v>4326</v>
       </c>
-      <c r="E187" s="6">
+      <c r="F187" s="6">
         <f>SUM(C$2:C187)/SUM(C$2:C$215)</f>
         <v>0.99320727169132705</v>
       </c>
-      <c r="F187" s="6">
+      <c r="G187" s="6">
         <f>SUM(D$2:D187)/SUM(D$2:D$215)</f>
         <v>0.99531912602767114</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H187" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6559000607950419E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5250,16 +6013,20 @@
       <c r="D188" s="5">
         <v>4236</v>
       </c>
-      <c r="E188" s="6">
+      <c r="F188" s="6">
         <f>SUM(C$2:C188)/SUM(C$2:C$215)</f>
         <v>0.9937800093774668</v>
       </c>
-      <c r="F188" s="6">
+      <c r="G188" s="6">
         <f>SUM(D$2:D188)/SUM(D$2:D$215)</f>
         <v>0.99564490451983045</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H188" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5382322370614422E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5272,16 +6039,20 @@
       <c r="D189" s="5">
         <v>4112</v>
       </c>
-      <c r="E189" s="6">
+      <c r="F189" s="6">
         <f>SUM(C$2:C189)/SUM(C$2:C$215)</f>
         <v>0.99412127794692828</v>
       </c>
-      <c r="F189" s="6">
+      <c r="G189" s="6">
         <f>SUM(D$2:D189)/SUM(D$2:D$215)</f>
         <v>0.99596114653110512</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H189" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3761121243618157E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5294,16 +6065,20 @@
       <c r="D190" s="5">
         <v>4076</v>
       </c>
-      <c r="E190" s="6">
+      <c r="F190" s="6">
         <f>SUM(C$2:C190)/SUM(C$2:C$215)</f>
         <v>0.99431416887749347</v>
       </c>
-      <c r="F190" s="6">
+      <c r="G190" s="6">
         <f>SUM(D$2:D190)/SUM(D$2:D$215)</f>
         <v>0.9962746198866389</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H190" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3290449948683758E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5316,16 +6091,20 @@
       <c r="D191" s="5">
         <v>4044</v>
       </c>
-      <c r="E191" s="6">
+      <c r="F191" s="6">
         <f>SUM(C$2:C191)/SUM(C$2:C$215)</f>
         <v>0.9946584049997329</v>
       </c>
-      <c r="F191" s="6">
+      <c r="G191" s="6">
         <f>SUM(D$2:D191)/SUM(D$2:D$215)</f>
         <v>0.99658563221484764</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H191" s="6">
+        <f t="shared" si="2"/>
+        <v>5.287207546429762E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5338,16 +6117,20 @@
       <c r="D192" s="5">
         <v>3442</v>
       </c>
-      <c r="E192" s="6">
+      <c r="F192" s="6">
         <f>SUM(C$2:C192)/SUM(C$2:C$215)</f>
         <v>0.99481271774418512</v>
       </c>
-      <c r="F192" s="6">
+      <c r="G192" s="6">
         <f>SUM(D$2:D192)/SUM(D$2:D$215)</f>
         <v>0.99685034646650306</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H192" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5001405476783485E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5360,16 +6143,20 @@
       <c r="D193" s="5">
         <v>3348</v>
       </c>
-      <c r="E193" s="6">
+      <c r="F193" s="6">
         <f>SUM(C$2:C193)/SUM(C$2:C$215)</f>
         <v>0.99531720171643256</v>
       </c>
-      <c r="F193" s="6">
+      <c r="G193" s="6">
         <f>SUM(D$2:D193)/SUM(D$2:D$215)</f>
         <v>0.99710783145039106</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H193" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3772430428899219E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5382,16 +6169,20 @@
       <c r="D194" s="5">
         <v>3276</v>
       </c>
-      <c r="E194" s="6">
+      <c r="F194" s="6">
         <f>SUM(C$2:C194)/SUM(C$2:C$215)</f>
         <v>0.99589884206090606</v>
       </c>
-      <c r="F194" s="6">
+      <c r="G194" s="6">
         <f>SUM(D$2:D194)/SUM(D$2:D$215)</f>
         <v>0.99735977912279761</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H194" s="6">
+        <f t="shared" si="2"/>
+        <v>4.2831087839030413E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5404,16 +6195,20 @@
       <c r="D195" s="5">
         <v>3226</v>
       </c>
-      <c r="E195" s="6">
+      <c r="F195" s="6">
         <f>SUM(C$2:C195)/SUM(C$2:C$215)</f>
         <v>0.99670898396927987</v>
       </c>
-      <c r="F195" s="6">
+      <c r="G195" s="6">
         <f>SUM(D$2:D195)/SUM(D$2:D$215)</f>
         <v>0.99760788144000856</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H195" s="6">
+        <f t="shared" ref="H195:H215" si="3">D195/764865</f>
+        <v>4.2177377707177085E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5426,16 +6221,20 @@
       <c r="D196" s="5">
         <v>3177</v>
       </c>
-      <c r="E196" s="6">
+      <c r="F196" s="6">
         <f>SUM(C$2:C196)/SUM(C$2:C$215)</f>
         <v>0.99690781000540096</v>
       </c>
-      <c r="F196" s="6">
+      <c r="G196" s="6">
         <f>SUM(D$2:D196)/SUM(D$2:D$215)</f>
         <v>0.99785221530912815</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H196" s="6">
+        <f t="shared" si="3"/>
+        <v>4.1536741777960812E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5448,16 +6247,20 @@
       <c r="D197" s="5">
         <v>3143</v>
       </c>
-      <c r="E197" s="6">
+      <c r="F197" s="6">
         <f>SUM(C$2:C197)/SUM(C$2:C$215)</f>
         <v>0.99707696051374273</v>
       </c>
-      <c r="F197" s="6">
+      <c r="G197" s="6">
         <f>SUM(D$2:D197)/SUM(D$2:D$215)</f>
         <v>0.99809393433671467</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H197" s="6">
+        <f t="shared" si="3"/>
+        <v>4.1092218888300553E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5470,16 +6273,20 @@
       <c r="D198" s="5">
         <v>3039</v>
       </c>
-      <c r="E198" s="6">
+      <c r="F198" s="6">
         <f>SUM(C$2:C198)/SUM(C$2:C$215)</f>
         <v>0.99725501368041836</v>
       </c>
-      <c r="F198" s="6">
+      <c r="G198" s="6">
         <f>SUM(D$2:D198)/SUM(D$2:D$215)</f>
         <v>0.9983276550254947</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H198" s="6">
+        <f t="shared" si="3"/>
+        <v>3.9732501814045617E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5492,16 +6299,20 @@
       <c r="D199" s="5">
         <v>2641</v>
       </c>
-      <c r="E199" s="6">
+      <c r="F199" s="6">
         <f>SUM(C$2:C199)/SUM(C$2:C$215)</f>
         <v>0.99809779866934933</v>
       </c>
-      <c r="F199" s="6">
+      <c r="G199" s="6">
         <f>SUM(D$2:D199)/SUM(D$2:D$215)</f>
         <v>0.99853076668691887</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H199" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4528969164493079E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5514,16 +6325,20 @@
       <c r="D200" s="5">
         <v>2421</v>
       </c>
-      <c r="E200" s="6">
+      <c r="F200" s="6">
         <f>SUM(C$2:C200)/SUM(C$2:C$215)</f>
         <v>0.99818979280546505</v>
       </c>
-      <c r="F200" s="6">
+      <c r="G200" s="6">
         <f>SUM(D$2:D200)/SUM(D$2:D$215)</f>
         <v>0.99871695878548306</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H200" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1652644584338413E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5536,16 +6351,20 @@
       <c r="D201" s="5">
         <v>2121</v>
       </c>
-      <c r="E201" s="6">
+      <c r="F201" s="6">
         <f>SUM(C$2:C201)/SUM(C$2:C$215)</f>
         <v>0.99872098475271387</v>
       </c>
-      <c r="F201" s="6">
+      <c r="G201" s="6">
         <f>SUM(D$2:D201)/SUM(D$2:D$215)</f>
         <v>0.99888007875287443</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H201" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7730383793218411E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5558,16 +6377,20 @@
       <c r="D202" s="5">
         <v>1931</v>
       </c>
-      <c r="E202" s="6">
+      <c r="F202" s="6">
         <f>SUM(C$2:C202)/SUM(C$2:C$215)</f>
         <v>0.99881297888882958</v>
       </c>
-      <c r="F202" s="6">
+      <c r="G202" s="6">
         <f>SUM(D$2:D202)/SUM(D$2:D$215)</f>
         <v>0.99902858637052305</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H202" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5246285292175744E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5580,16 +6403,20 @@
       <c r="D203" s="5">
         <v>1900</v>
       </c>
-      <c r="E203" s="6">
+      <c r="F203" s="6">
         <f>SUM(C$2:C203)/SUM(C$2:C$215)</f>
         <v>0.99889013526105563</v>
       </c>
-      <c r="F203" s="6">
+      <c r="G203" s="6">
         <f>SUM(D$2:D203)/SUM(D$2:D$215)</f>
         <v>0.99917470986795054</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H203" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4840985010426675E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5602,16 +6429,20 @@
       <c r="D204" s="5">
         <v>1750</v>
       </c>
-      <c r="E204" s="6">
+      <c r="F204" s="6">
         <f>SUM(C$2:C204)/SUM(C$2:C$215)</f>
         <v>0.99894355121105827</v>
       </c>
-      <c r="F204" s="6">
+      <c r="G204" s="6">
         <f>SUM(D$2:D204)/SUM(D$2:D$215)</f>
         <v>0.99930929729979157</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H204" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2879854614866676E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5624,16 +6455,20 @@
       <c r="D205" s="5">
         <v>1571</v>
       </c>
-      <c r="E205" s="6">
+      <c r="F205" s="6">
         <f>SUM(C$2:C205)/SUM(C$2:C$215)</f>
         <v>0.99903851289995194</v>
       </c>
-      <c r="F205" s="6">
+      <c r="G205" s="6">
         <f>SUM(D$2:D205)/SUM(D$2:D$215)</f>
         <v>0.99943011836003293</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H205" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0539572342831739E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5646,16 +6481,20 @@
       <c r="D206" s="5">
         <v>1522</v>
       </c>
-      <c r="E206" s="6">
+      <c r="F206" s="6">
         <f>SUM(C$2:C206)/SUM(C$2:C$215)</f>
         <v>0.99910083150828832</v>
       </c>
-      <c r="F206" s="6">
+      <c r="G206" s="6">
         <f>SUM(D$2:D206)/SUM(D$2:D$215)</f>
         <v>0.99954717097218271</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H206" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9898936413615476E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5668,16 +6507,20 @@
       <c r="D207" s="5">
         <v>1482</v>
       </c>
-      <c r="E207" s="6">
+      <c r="F207" s="6">
         <f>SUM(C$2:C207)/SUM(C$2:C$215)</f>
         <v>0.99945990539441742</v>
       </c>
-      <c r="F207" s="6">
+      <c r="G207" s="6">
         <f>SUM(D$2:D207)/SUM(D$2:D$215)</f>
         <v>0.99966114730017608</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H207" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9375968308132808E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5690,16 +6533,20 @@
       <c r="D208" s="5">
         <v>1465</v>
       </c>
-      <c r="E208" s="6">
+      <c r="F208" s="6">
         <f>SUM(C$2:C208)/SUM(C$2:C$215)</f>
         <v>0.9996349910083151</v>
       </c>
-      <c r="F208" s="6">
+      <c r="G208" s="6">
         <f>SUM(D$2:D208)/SUM(D$2:D$215)</f>
         <v>0.99977381620740313</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H208" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9153706863302674E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5712,16 +6559,20 @@
       <c r="D209" s="5">
         <v>837</v>
       </c>
-      <c r="E209" s="6">
+      <c r="F209" s="6">
         <f>SUM(C$2:C209)/SUM(C$2:C$215)</f>
         <v>0.9997151149333191</v>
       </c>
-      <c r="F209" s="6">
+      <c r="G209" s="6">
         <f>SUM(D$2:D209)/SUM(D$2:D$215)</f>
         <v>0.99983818745337505</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H209" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0943107607224805E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5734,16 +6585,20 @@
       <c r="D210" s="5">
         <v>523</v>
       </c>
-      <c r="E210" s="6">
+      <c r="F210" s="6">
         <f>SUM(C$2:C210)/SUM(C$2:C$215)</f>
         <v>0.99973292024998661</v>
       </c>
-      <c r="F210" s="6">
+      <c r="G210" s="6">
         <f>SUM(D$2:D210)/SUM(D$2:D$215)</f>
         <v>0.99987840986871956</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H210" s="6">
+        <f t="shared" si="3"/>
+        <v>6.8378079791858693E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5756,16 +6611,20 @@
       <c r="D211" s="5">
         <v>438</v>
       </c>
-      <c r="E211" s="6">
+      <c r="F211" s="6">
         <f>SUM(C$2:C211)/SUM(C$2:C$215)</f>
         <v>0.99977149843609969</v>
       </c>
-      <c r="F211" s="6">
+      <c r="G211" s="6">
         <f>SUM(D$2:D211)/SUM(D$2:D$215)</f>
         <v>0.99991209518023183</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H211" s="6">
+        <f t="shared" si="3"/>
+        <v>5.7265007550352028E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5778,16 +6637,20 @@
       <c r="D212" s="5">
         <v>417</v>
       </c>
-      <c r="E212" s="6">
+      <c r="F212" s="6">
         <f>SUM(C$2:C212)/SUM(C$2:C$215)</f>
         <v>0.99978633619998936</v>
       </c>
-      <c r="F212" s="6">
+      <c r="G212" s="6">
         <f>SUM(D$2:D212)/SUM(D$2:D$215)</f>
         <v>0.99994416544256193</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H212" s="6">
+        <f t="shared" si="3"/>
+        <v>5.4519424996568025E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5800,16 +6663,20 @@
       <c r="D213" s="5">
         <v>373</v>
       </c>
-      <c r="E213" s="6">
+      <c r="F213" s="6">
         <f>SUM(C$2:C213)/SUM(C$2:C$215)</f>
         <v>0.99983084949165824</v>
       </c>
-      <c r="F213" s="6">
+      <c r="G213" s="6">
         <f>SUM(D$2:D213)/SUM(D$2:D$215)</f>
         <v>0.99997285179232009</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H213" s="6">
+        <f t="shared" si="3"/>
+        <v>4.8766775836258687E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5822,16 +6689,20 @@
       <c r="D214" s="5">
         <v>258</v>
       </c>
-      <c r="E214" s="6">
+      <c r="F214" s="6">
         <f>SUM(C$2:C214)/SUM(C$2:C$215)</f>
         <v>0.99985458991388165</v>
       </c>
-      <c r="F214" s="6">
+      <c r="G214" s="6">
         <f>SUM(D$2:D214)/SUM(D$2:D$215)</f>
         <v>0.99999269382512868</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H214" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3731442803632011E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5844,13 +6715,17 @@
       <c r="D215" s="5">
         <v>95</v>
       </c>
-      <c r="E215" s="6">
+      <c r="F215" s="6">
         <f>SUM(C$2:C215)/SUM(C$2:C$215)</f>
         <v>1</v>
       </c>
-      <c r="F215" s="6">
+      <c r="G215" s="6">
         <f>SUM(D$2:D215)/SUM(D$2:D$215)</f>
         <v>1</v>
+      </c>
+      <c r="H215" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2420492505213338E-4</v>
       </c>
     </row>
   </sheetData>
